--- a/ilin SD error fc by 1000 to 5 Hz.xlsx
+++ b/ilin SD error fc by 1000 to 5 Hz.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="non-normalized" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="noramlized" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="relative" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -677,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0395132680760054</v>
+        <v>0.5657982405920364</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009750796287205134</v>
+        <v>0.1883811337444843</v>
       </c>
     </row>
     <row r="13">
@@ -694,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07275416428773721</v>
+        <v>0.08895338133508779</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02453365804694121</v>
+        <v>0.03349654648258651</v>
       </c>
     </row>
     <row r="14">
@@ -715,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.069201342848898e-07</v>
+        <v>7.5752966932548e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>6.610936928436087e-10</v>
+        <v>1.479845293030739e-08</v>
       </c>
     </row>
     <row r="15">
@@ -732,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>8.97678733244774e-07</v>
+        <v>1.064897827635328e-06</v>
       </c>
       <c r="E15" t="n">
-        <v>1.682733762755776e-09</v>
+        <v>2.354490892102555e-09</v>
       </c>
     </row>
     <row r="16">
@@ -753,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0009689956398558652</v>
+        <v>0.01166323839518434</v>
       </c>
       <c r="E16" t="n">
-        <v>3.790170168449451e-05</v>
+        <v>0.0007520874975719372</v>
       </c>
     </row>
     <row r="17">
@@ -770,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001460619062414453</v>
+        <v>0.001715957018340097</v>
       </c>
       <c r="E17" t="n">
-        <v>9.144707585812671e-05</v>
+        <v>0.0001240902062152664</v>
       </c>
     </row>
     <row r="18">
@@ -791,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002357291465192698</v>
+        <v>0.02839931120834037</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001408724881438443</v>
+        <v>0.002719612664355296</v>
       </c>
     </row>
     <row r="19">
@@ -808,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003601929179341725</v>
+        <v>0.004231481834406875</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0003367857660734979</v>
+        <v>0.0004540778028500645</v>
       </c>
     </row>
     <row r="20">
@@ -829,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004026407851673715</v>
+        <v>0.04873504371687315</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0003107912327629561</v>
+        <v>0.005901750460229218</v>
       </c>
     </row>
     <row r="21">
@@ -846,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006229920295435476</v>
+        <v>0.007325545163070694</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0007398991718210246</v>
+        <v>0.0009940129757899992</v>
       </c>
     </row>
   </sheetData>
@@ -1105,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03898385665690814</v>
+        <v>0.1085700849482371</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01936570748593933</v>
+        <v>0.06264668349569744</v>
       </c>
     </row>
     <row r="13">
@@ -1122,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05289836564573515</v>
+        <v>0.04304875659622465</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03071810919595576</v>
+        <v>0.02641675071592301</v>
       </c>
     </row>
     <row r="14">
@@ -1143,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0001527844301225762</v>
+        <v>0.0003972639942273589</v>
       </c>
       <c r="E14" t="n">
-        <v>5.04248753037476e-06</v>
+        <v>1.75585051389558e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1160,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001858120155555044</v>
+        <v>0.0001489475458309714</v>
       </c>
       <c r="E15" t="n">
-        <v>8.044907043388421e-06</v>
+        <v>7.003705703802088e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1181,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00610483931577068</v>
+        <v>0.0155879483330234</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001207376394127342</v>
+        <v>0.003958344291840806</v>
       </c>
     </row>
     <row r="17">
@@ -1198,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007495175531414172</v>
+        <v>0.005979055489686647</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001875418680005232</v>
+        <v>0.001607859642345909</v>
       </c>
     </row>
     <row r="18">
@@ -1219,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.009521820012663823</v>
+        <v>0.02432390422692098</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002327696849015585</v>
+        <v>0.007527190523300754</v>
       </c>
     </row>
     <row r="19">
@@ -1236,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01177012054598378</v>
+        <v>0.009389135825524265</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003599069142866602</v>
+        <v>0.003075703858638379</v>
       </c>
     </row>
     <row r="20">
@@ -1257,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0124443497399016</v>
+        <v>0.03186398297087466</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003457384698355303</v>
+        <v>0.01108842344917025</v>
       </c>
     </row>
     <row r="21">
@@ -1274,10 +1275,438 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01547941597913857</v>
+        <v>0.01235376558910843</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005334572190406161</v>
+        <v>0.004550670682689713</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ilin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ilin_pert</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ilin_pert_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>100 by 1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.244859943155042</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6869755270449981</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6354657872029116</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.779088534245741</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1.1 by 1</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0006701313402993759</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.208999816378208e-05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0001744691390451842</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.921111776638269e-06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2 by 1</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05345908465344134</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0245839346816354</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01236258836917012</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.004575800140139828</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2.5 by 1</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1085951203632378</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.07415730267896953</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02358305094731582</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01293270281312042</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>3 by 1</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1782402965650605</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1616826848545114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03644504027155407</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02669887475131386</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>1 by 100</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1115880413540915</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.06433674499824857</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03366965258503522</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01811214765368991</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>1 by 1.1</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0005851081457032474</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.583285292464208e-05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0001569305479578639</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.808776652451207e-06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>1 by 2</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.02034275204448698</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.005158349383371032</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.005855964679008234</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.001290403737992417</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1 by 2.5</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03061932227074565</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.00946112108433346</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.008955264567421023</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.002431968527780709</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1 by 3</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Re</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03907457165983354</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01357686519368964</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Im</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01154186891325335</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.003553767737792582</v>
       </c>
     </row>
   </sheetData>

--- a/ilin SD error fc by 1000 to 5 Hz.xlsx
+++ b/ilin SD error fc by 1000 to 5 Hz.xlsx
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>21844.02023533632</v>
+        <v>27620514.70294924</v>
       </c>
       <c r="E2" t="n">
-        <v>967.9722747980378</v>
+        <v>297362781.8922605</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>466893.8836607665</v>
+        <v>5463712.109329401</v>
       </c>
       <c r="E3" t="n">
-        <v>626015.3168838789</v>
+        <v>2113211920.527282</v>
       </c>
     </row>
     <row r="4">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.09495670587445e-05</v>
+        <v>1.13424006763014e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>2.515578086833746e-08</v>
+        <v>2.612452624895427e-08</v>
       </c>
     </row>
     <row r="5">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.524716172735701e-06</v>
+        <v>1.524720677853244e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>3.992606473552379e-09</v>
+        <v>3.992630022507085e-09</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.165807191926343</v>
+        <v>0.1855324454205115</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03509957726938921</v>
+        <v>0.03956241248357872</v>
       </c>
     </row>
     <row r="7">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02336197841642595</v>
+        <v>0.02336239163745425</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005887548124756665</v>
+        <v>0.005887727254097884</v>
       </c>
     </row>
     <row r="8">
@@ -602,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9362732912013425</v>
+        <v>1.088854890684225</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4369196156310017</v>
+        <v>0.5121846389627739</v>
       </c>
     </row>
     <row r="9">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1337051761806517</v>
+        <v>0.1337095624678084</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07623503420175903</v>
+        <v>0.07623872899258312</v>
       </c>
     </row>
     <row r="10">
@@ -640,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.176421591094363</v>
+        <v>3.828652871539674</v>
       </c>
       <c r="E10" t="n">
-        <v>2.615006564480609</v>
+        <v>3.172797042187379</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4611303737710531</v>
+        <v>0.4611555767145629</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4764093131577642</v>
+        <v>0.4764409149797836</v>
       </c>
     </row>
     <row r="12">
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5657982405920364</v>
+        <v>0.581210088603111</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1883811337444843</v>
+        <v>0.1937277427923121</v>
       </c>
     </row>
     <row r="13">
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08895338133508779</v>
+        <v>0.08895358655360704</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03349654648258651</v>
+        <v>0.03349666622184847</v>
       </c>
     </row>
     <row r="14">
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.5752966932548e-06</v>
+        <v>7.778588137199833e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>1.479845293030739e-08</v>
+        <v>1.522420629800395e-08</v>
       </c>
     </row>
     <row r="15">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.064897827635328e-06</v>
+        <v>1.064899987887294e-06</v>
       </c>
       <c r="E15" t="n">
-        <v>2.354490892102555e-09</v>
+        <v>2.354500471305073e-09</v>
       </c>
     </row>
     <row r="16">
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01166323839518434</v>
+        <v>0.01197438710249715</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0007520874975719372</v>
+        <v>0.0007734731990989421</v>
       </c>
     </row>
     <row r="17">
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001715957018340097</v>
+        <v>0.001715960241221148</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0001240902062152664</v>
+        <v>0.0001240906563257824</v>
       </c>
     </row>
     <row r="18">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02839931120834037</v>
+        <v>0.02915682892429171</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002719612664355296</v>
+        <v>0.002796727625453158</v>
       </c>
     </row>
     <row r="19">
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004231481834406875</v>
+        <v>0.004231489745743437</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0004540778028500645</v>
+        <v>0.0004540794052915218</v>
       </c>
     </row>
     <row r="20">
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04873504371687315</v>
+        <v>0.05003557157570743</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005901750460229218</v>
+        <v>0.00606880952017942</v>
       </c>
     </row>
     <row r="21">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.007325545163070694</v>
+        <v>0.007325558898475494</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0009940129757899992</v>
+        <v>0.0009940164261529544</v>
       </c>
     </row>
   </sheetData>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>20.90168425526341</v>
+        <v>632.6905361513607</v>
       </c>
       <c r="E2" t="n">
-        <v>4.39993698772616</v>
+        <v>2075.958943397109</v>
       </c>
     </row>
     <row r="3">
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>96.63269463910923</v>
+        <v>281.3969322301543</v>
       </c>
       <c r="E3" t="n">
-        <v>111.8941747262903</v>
+        <v>5534.099720621837</v>
       </c>
     </row>
     <row r="4">
@@ -954,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004776148871114785</v>
+        <v>0.0004811211539960362</v>
       </c>
       <c r="E4" t="n">
-        <v>2.289276671986948e-05</v>
+        <v>2.309011903211922e-05</v>
       </c>
     </row>
     <row r="5">
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001782271591686494</v>
+        <v>0.0001763994005874658</v>
       </c>
       <c r="E5" t="n">
-        <v>9.120268720401895e-06</v>
+        <v>9.02675165036058e-06</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05817061322862906</v>
+        <v>0.05973216589662679</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0267641159662882</v>
+        <v>0.02758288644584185</v>
       </c>
     </row>
     <row r="7">
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02183517963569291</v>
+        <v>0.02119614970363097</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01096147998047622</v>
+        <v>0.01064074828746865</v>
       </c>
     </row>
     <row r="8">
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1368410239074045</v>
+        <v>0.1433332895725984</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09347936837944527</v>
+        <v>0.09830493941051573</v>
       </c>
     </row>
     <row r="9">
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05171173487336345</v>
+        <v>0.05022770085674712</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03904741584324346</v>
+        <v>0.03792712202060313</v>
       </c>
     </row>
     <row r="10">
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2520484711754611</v>
+        <v>0.2687726426280712</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2286922195651006</v>
+        <v>0.2446714023657258</v>
       </c>
     </row>
     <row r="11">
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09603440776836739</v>
+        <v>0.09327941154003869</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09761242883544741</v>
+        <v>0.09481271658397755</v>
       </c>
     </row>
     <row r="12">
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1085700849482371</v>
+        <v>0.1089101941034692</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06264668349569744</v>
+        <v>0.06287787690376272</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04304875659622465</v>
+        <v>0.0426072683637493</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02641675071592301</v>
+        <v>0.02614584925182099</v>
       </c>
     </row>
     <row r="14">
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0003972639942273589</v>
+        <v>0.0003984302908634679</v>
       </c>
       <c r="E14" t="n">
-        <v>1.75585051389558e-05</v>
+        <v>1.762663007254553e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001489475458309714</v>
+        <v>0.0001474199878375602</v>
       </c>
       <c r="E15" t="n">
-        <v>7.003705703802088e-06</v>
+        <v>6.93188502693417e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0155879483330234</v>
+        <v>0.01563250610074206</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003958344291840806</v>
+        <v>0.003973055163038872</v>
       </c>
     </row>
     <row r="17">
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005979055489686647</v>
+        <v>0.005917735779807616</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001607859642345909</v>
+        <v>0.001591371224446251</v>
       </c>
     </row>
     <row r="18">
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02432390422692098</v>
+        <v>0.02439338691091389</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007527190523300754</v>
+        <v>0.007554870878369792</v>
       </c>
     </row>
     <row r="19">
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.009389135825524265</v>
+        <v>0.009292843137953033</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003075703858638379</v>
+        <v>0.003044162715526633</v>
       </c>
     </row>
     <row r="20">
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03186398297087466</v>
+        <v>0.03195518915277999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01108842344917025</v>
+        <v>0.011128937753167</v>
       </c>
     </row>
     <row r="21">
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01235376558910843</v>
+        <v>0.0122270684143708</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004550670682689713</v>
+        <v>0.00450400372039429</v>
       </c>
     </row>
   </sheetData>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.244859943155042</v>
+        <v>98.2200633812658</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6869755270449981</v>
+        <v>322.275753429804</v>
       </c>
     </row>
     <row r="3">
@@ -1361,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6354657872029116</v>
+        <v>0.5764776665694804</v>
       </c>
       <c r="E3" t="n">
-        <v>0.779088534245741</v>
+        <v>0.8304545930486527</v>
       </c>
     </row>
     <row r="4">
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006701313402993759</v>
+        <v>0.0006749537533279854</v>
       </c>
       <c r="E4" t="n">
-        <v>3.208999816378208e-05</v>
+        <v>3.236277635016415e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001744691390451842</v>
+        <v>0.0001726796705987645</v>
       </c>
       <c r="E5" t="n">
-        <v>6.921111776638269e-06</v>
+        <v>6.850124138550428e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05345908465344134</v>
+        <v>0.05488228042585275</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0245839346816354</v>
+        <v>0.02533163040631477</v>
       </c>
     </row>
     <row r="7">
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01236258836917012</v>
+        <v>0.01200067851568775</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004575800140139828</v>
+        <v>0.004441845163480837</v>
       </c>
     </row>
     <row r="8">
@@ -1458,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1085951203632378</v>
+        <v>0.1137239625666474</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07415730267896953</v>
+        <v>0.07797276408528356</v>
       </c>
     </row>
     <row r="9">
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02358305094731582</v>
+        <v>0.0229058837499312</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01293270281312042</v>
+        <v>0.01256135140940822</v>
       </c>
     </row>
     <row r="10">
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1782402965650605</v>
+        <v>0.1900318871140088</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1616826848545114</v>
+        <v>0.1729543979167011</v>
       </c>
     </row>
     <row r="11">
@@ -1513,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03644504027155407</v>
+        <v>0.03539855015829611</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02669887475131386</v>
+        <v>0.02593223945813202</v>
       </c>
     </row>
     <row r="12">
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1115880413540915</v>
+        <v>0.1118850668580248</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06433674499824857</v>
+        <v>0.06454400405735021</v>
       </c>
     </row>
     <row r="13">
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03366965258503522</v>
+        <v>0.03332431427864106</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01811214765368991</v>
+        <v>0.01792637712635285</v>
       </c>
     </row>
     <row r="14">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0005851081457032474</v>
+        <v>0.0005867488626459489</v>
       </c>
       <c r="E14" t="n">
-        <v>2.583285292464208e-05</v>
+        <v>2.593021876773441e-05</v>
       </c>
     </row>
     <row r="15">
@@ -1589,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001569305479578639</v>
+        <v>0.0001553209706826614</v>
       </c>
       <c r="E15" t="n">
-        <v>5.808776652451207e-06</v>
+        <v>5.749197881204161e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02034275204448698</v>
+        <v>0.02039658021736028</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005158349383371032</v>
+        <v>0.005176555584975054</v>
       </c>
     </row>
     <row r="17">
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005855964679008234</v>
+        <v>0.005795902141088857</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001290403737992417</v>
+        <v>0.001277168478006985</v>
       </c>
     </row>
     <row r="18">
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03061932227074565</v>
+        <v>0.03069934648064235</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00946112108433346</v>
+        <v>0.009493857602706976</v>
       </c>
     </row>
     <row r="19">
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.008955264567421023</v>
+        <v>0.008863413577290801</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002431968527780709</v>
+        <v>0.002407024601474931</v>
       </c>
     </row>
     <row r="20">
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03907457165983354</v>
+        <v>0.0391759716014525</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01357686519368964</v>
+        <v>0.01362318785781564</v>
       </c>
     </row>
     <row r="21">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01154186891325335</v>
+        <v>0.01142348800126919</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003553767737792582</v>
+        <v>0.003517317874417882</v>
       </c>
     </row>
   </sheetData>
